--- a/イベント登録_結合テスト.xlsx
+++ b/イベント登録_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28559624-1D99-4DE5-BFF8-A071F09E2CA6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{472B8B74-D487-43A0-900C-86A832A03A15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -166,22 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力された値に対して●で表示されていない</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.XAMPPのMySQLを停止の状態にする</t>
     <rPh sb="14" eb="16">
       <t>テイシ</t>
@@ -219,22 +203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント登録確認画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー（未入力）が０件である場合、「確認する」を押しアカウント登録確認画面に遷移する</t>
     <rPh sb="4" eb="7">
       <t>ミニュウリョク</t>
@@ -285,28 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.「確認する」を押し、アカウント登録確認画面に遷移する</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.「確認する」を押す。</t>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
@@ -347,10 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「登録画面に戻る」を押下後、登録画面に遷移する</t>
     <rPh sb="1" eb="3">
       <t>トウロク</t>
@@ -375,151 +317,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「名前（名）」に指定外の文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「ニックネーム」に指定された文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「ニックネーム」に指定外の文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「パスワード」に指定された文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「パスワード」に指定外の文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「メールアドレス」に指定された文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の「メールアドレス」に指定外の文字を入力</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1496,6 +1293,166 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「開始日」に指定外の文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「終了日」に指定された文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「終了日」に指定外の文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「内容」に指定された文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「内容」に指定外の文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「写真」に指定された文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント登録画面の「写真」に指定外の文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2369,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2381,20 +2338,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2421,12 +2378,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2460,26 +2417,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45806</v>
+        <v>69</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2489,7 +2446,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2502,7 +2459,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2511,26 +2468,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45806</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2540,7 +2497,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2553,7 +2510,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2562,26 +2519,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45806</v>
+        <v>69</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2591,7 +2548,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2604,7 +2561,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2613,26 +2570,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45806</v>
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2642,7 +2599,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2655,7 +2612,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2664,26 +2621,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45806</v>
+        <v>69</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2693,7 +2650,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2706,7 +2663,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2715,26 +2672,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45806</v>
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2744,7 +2701,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2757,7 +2714,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2766,26 +2723,26 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45806</v>
+        <v>69</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46002</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2795,7 +2752,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2808,7 +2765,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2817,26 +2774,26 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="4">
-        <v>45806</v>
+        <v>25</v>
+      </c>
+      <c r="G29" s="3">
+        <v>46002</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2846,7 +2803,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2859,7 +2816,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2868,26 +2825,26 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45806</v>
+      <c r="G32" s="3">
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2897,7 +2854,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2910,7 +2867,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2919,26 +2876,26 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="4">
-        <v>45806</v>
+        <v>25</v>
+      </c>
+      <c r="G35" s="3">
+        <v>46002</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2948,7 +2905,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2961,7 +2918,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2970,26 +2927,26 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45806</v>
+        <v>69</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46002</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2999,7 +2956,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3012,7 +2969,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3021,26 +2978,26 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="4">
-        <v>45806</v>
+        <v>70</v>
+      </c>
+      <c r="G41" s="3">
+        <v>46002</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3050,7 +3007,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3059,26 +3016,26 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="4">
-        <v>45805</v>
+        <v>30</v>
+      </c>
+      <c r="G43" s="3">
+        <v>46002</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3088,7 +3045,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3097,26 +3054,26 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="4">
-        <v>45991</v>
+        <v>33</v>
+      </c>
+      <c r="G45" s="3">
+        <v>46002</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3149,7 +3106,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3160,20 +3117,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3200,12 +3157,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3244,19 +3201,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45805</v>
+        <v>84</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -3266,7 +3223,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -3279,7 +3236,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3295,19 +3252,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45805</v>
+        <v>84</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3317,7 +3274,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -3330,7 +3287,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3346,19 +3303,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45805</v>
+        <v>84</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3368,7 +3325,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -3381,7 +3338,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3390,26 +3347,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45805</v>
+        <v>84</v>
+      </c>
+      <c r="G17" s="3">
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3419,7 +3376,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -3432,7 +3389,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3441,30 +3398,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45805</v>
+        <v>84</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
@@ -3472,7 +3427,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -3485,7 +3440,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3494,26 +3449,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45805</v>
+        <v>85</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -3523,7 +3478,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3532,26 +3487,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45805</v>
+        <v>70</v>
+      </c>
+      <c r="G25" s="3">
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -3561,7 +3516,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3577,19 +3532,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45805</v>
+        <v>30</v>
+      </c>
+      <c r="G27" s="3">
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3599,7 +3554,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3608,26 +3563,26 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="4">
-        <v>45991</v>
+        <v>33</v>
+      </c>
+      <c r="G29" s="3">
+        <v>46002</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3659,7 +3614,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3670,20 +3625,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3710,12 +3665,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3756,19 +3711,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45805</v>
+      <c r="G9" s="3">
+        <v>46002</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3778,7 +3733,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3794,16 +3749,20 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3812,7 +3771,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3828,16 +3787,20 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3860,16 +3823,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3878,7 +3845,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3894,19 +3861,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45805</v>
+      <c r="G17" s="3">
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3918,7 +3885,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3931,7 +3898,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3947,19 +3914,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45805</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3969,7 +3936,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3982,7 +3949,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3991,26 +3958,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45805</v>
+        <v>30</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -4027,26 +3994,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45991</v>
+        <v>33</v>
+      </c>
+      <c r="G25" s="3">
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I25" s="2"/>
     </row>
